--- a/va_facility_data_2025-02-20/Durham VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Durham%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Durham VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Durham%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R2a8703a6afcb42c19aa07e862ace1497"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rccef28ae919a408b8f676760db077e17"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R50f6c63a0b6741cc9890734b115b848f"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R91f87e02066d4c49b27b55a619b02ad5"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ra795045d056d417e8f8a701c15159adf"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R5bc8b380fb8a4da791e2d71983a06e32"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R48741d8698ef41a3b9640cc3d1f6913c"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R6708ec85eac542f9a2299ce08c49fde6"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R58c9a71fe2ff472f9a2cceccc0ea5073"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R0901304726c941658516a49b9b11c5d8"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ra9fc0d2e3ac64926bcc0c473fefc8114"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R28633a00bb5e4ca2865646871bc98edd"/>
   </x:sheets>
 </x:workbook>
 </file>
